--- a/sict/contest/jangjunyoung/result/네이처리퍼블릭 상품유형별 정리.xlsx
+++ b/sict/contest/jangjunyoung/result/네이처리퍼블릭 상품유형별 정리.xlsx
@@ -448,1864 +448,1864 @@
     <x:t>에센스/세럼/앰플</x:t>
   </x:si>
   <x:si>
+    <x:t>굿스킨 앰플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,700원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[특가] 인텐스 멀티 앰플밤 히알론 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[특가] 인텐스 멀티 앰플밤 프로폴리스 (주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[특가] 인텐스 멀티 앰플밤 시카 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수딩 앤 모이스처 알로에베라 74 쿨링 아이 세럼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈퍼 아쿠아 맥스 수분 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,130원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,900원</x:t>
+  </x:si>
+  <x:si>
     <x:t>그린더마 티트리 시카 스팟 세럼 (여드름성 피부용)</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13579</x:t>
   </x:si>
   <x:si>
+    <x:t>11,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜라겐 드림 70 에센스 (주름개선 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그린더마 티트리 시카 스팟 파우더(여드름성 피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텐스 멀티 앰플밤 콜라겐 (주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,200원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텐스 멀티 앰플밤 비타 C (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그린더마 마일드 시카 세럼 (피부진정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 잡티세럼 (미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,430원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 허브올로지 카모마일 퓨어 오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 허브올로지 로즈힙 라이트 오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 허브올로지 타마누 인텐시브 오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 허브올로지 티트리 리파이닝 오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 허브올로지 페퍼민트 릴랙싱 오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셀파워 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=9806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히아테놀 하이드라 캡슐 에센스 (미백기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[GIFT: 마스크팩3매] 콤부차 화이트티 아이크림(미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[GIFT: 마스크팩3매] 비타페어C 비타민C 25 앰플 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히아테놀 하이드라 앰플 기획세트 (미백기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히아테놀 하이드라 앰플 (미백기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[GIFT: 블랙티 트라이얼 키트] 콤부차 블랙티 트리트먼트 앰플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[2종 택1 GIFT] 콤부차 화이트티 트리트먼트 에센스(피부결개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진생 로얄 실크 에멀전 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[2종 택1 GIFT] 콤부차 블랙티 트리트먼트 에센스 (탄력개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 잡티세럼 90ml 대용량 (미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28,700원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진생 로얄 실크 링클 앰플밤 (주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스네일 솔루션 앰플 (주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13916</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진생 로얄 실크 에센스 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수딩 앤 모이스처 알로에베라 92% 수딩젤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12938</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,400원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어린녹차 순한 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카렌듈라 릴리프 크림 (민감성 피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굿스킨 앰플 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>링클비타에이 스팟 프로 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터스 프레쉬 크림 (민감성 피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐모마일 카밍 크림 (민감성 피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈퍼 아쿠아 맥스 컴비네이션 수분크림 [복합성용]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 라벤더 풋 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈퍼 아쿠아 맥스 프레시 수분크림 [지성용]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈퍼 아쿠아 맥스 모이스처 수분크림 [건성용]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜라겐 드림 70 크림 (주름개선 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그린더마 티트리 시카 수딩크림 (여드름성 피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜라겐 드림 50 올인원 래디언스 톤 업 크림 SPF35 PA++ (미백·주름개선·자외선차단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,450원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 레드클로버 퍼밍 크림 (주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 브로콜리 스프라우트 퓨리파잉 크림(수분공급)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 아르테미시아 엑스트라 수딩 크림 (진정보습)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 어니언 리커버리 크림 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 말로우 센시티브 크림(민감성 피부 사용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 오레가노 블레미쉬 크림 (여드름성피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 몰로키아 딥 모이스처 크림(보습)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉐어버터 스팀 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(대용량) 슈퍼 아쿠아 맥스 컴비네이션 수분 크림 [복합성용]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 잡티 크림 (미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셀파워 수분크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셀파워 나이트 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셀파워 데이 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=9829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히아테놀 하이드라 크림 (미백기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 젤크림 (미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,920원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그린더마 마일드 시카 크림 (민감성 피부용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 7일 화이트닝 슬리핑 크림 (미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,400원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[GIFT: 블랙티 트라이얼 키트] 콤부차 블랙티 트리트먼트 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스네일 솔루션 크림 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진생 로얄 실크 워터리 크림 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜라겐 드림 50 올 페이스 아이크림 (주름개선 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셀파워 아이크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[GIFT: 마스크팩3매] 콤부차 블랙티 아이크림(미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진생 로얄 실크 아이크림 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바디클렌저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매끈매끈 때샤워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼퓸 드 네이처 바디 워시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순한 베이비 아토 워시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,600원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바디로션/크림/미스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모멘트 퍼퓸 미스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,400원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼퓸 드 네이처 바디 로션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 화이트진저 릴랙싱 바디 크림(릴렉싱)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순한 베이비 아토 로션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>향수/방향/디퓨저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼퓸 드 네이처 오드 퍼퓸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸드/풋케어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 핸드 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 풋 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 리얼 스퀴즈 알로에베라 필링 풋 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋 앤 네이처 코코넛 모이스처 풋 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손이깨끗해 핸드솝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 핸드 앤 네이처 핸드크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매끈매끈 피톤치드 풋 샤워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 핸드 앤 네이처 릴리 핸드크림 (대용량)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 핸드 앤 네이처 복숭아 핸드크림(대용량)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모멘트 퍼퓸 미니 핸드크림 기획세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데오드란트/제모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뷰티 툴 바디 면도기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레시 데오드란트 스틱-플로랄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,160원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레시 데오드란트 스틱 - 코튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바디기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배쓰 앤 네이처 캐모마일 페미닌 워시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,320원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샴푸/린스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[단품/1+1] 트루 허브 사이프러스 타임 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[단품/1+1] 트루 허브 로즈마리 민트 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[단품/1+1] 트루 허브 라벤더 패출리 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[단품/1+1] 트루 허브 만다린 진저 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 컨디셔너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 샴푸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙빈 탈모증상 개선 트리트먼트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙빈 탈모증상 개선 샴푸 300ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙빈 탈모증상 개선 샴푸 520ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 샴푸 (대용량)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙빈 탈모증상 개선 기획세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어팩/에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 수분 헤어 미스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 컬링 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 헤어 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 헤어팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12926</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 스테이 볼륨 컬링 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙빈 탈모증상 개선 두피 토닉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 헤어 노워시 트리트먼트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 헤어팩 (대용량)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 헤어팩 더블세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙빈 탈모증상 개선 샴푸 1000ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 파워 홀딩 헤어 젤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,830원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아프리카 버드 옴므 울트라 하드 왁스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 퍼펙트 스타일링 헤어 스프레이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,530원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 스피디 홀딩 워터 세팅 스프레이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,400원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어컬러링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (멋내기용) 10N 골드 브라운</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용/5분스피디) 6S 자연 갈색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,600원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 5N 자연 갈색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 3N 흑갈색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블러셔/하이라이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 블러셔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 컨투어링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13815</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 리퀴드 블러셔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 그라데이션 블러셔 샤이베이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이크드 블러셔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실루엣 쉐딩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글로이 하이라이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이섀도우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 블라썸 아이 섀도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 블라썸 페리 트윙클 글리터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 블라썸 멀티 블렌딩 팔레트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13868</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데일리 베이직 팔레트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 블라썸 뉴 무드 아이 팔레트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13798</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글리터 홀릭 아이 팔레트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로 터치 컬러 마스터 섀도 팔레트 스프링 에디션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마스카라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 와일드 마스카라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,280원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 수퍼슬림 마스카라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 무드 웨어 컬픽스 마스카라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 수퍼프루프 마스카라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 하드 아이라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 극세사 슬림핏 아이라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 컬러 무드 오토 펜슬 라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 스키니 오토 아이라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 리퀴드 라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 스키니 펜 라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 하이퍼 라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,930원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 스머지 프루프 아이라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 럭키 도트 펜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 팔레트 젤 라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이브로우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 우드 아이브로우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 오토 아이브로우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 극세사 브로우 펜슬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 오토 하드 아이 브로우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 스키니 아이브로우 코팅 카라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보테니컬 스타일러 케익 아이브로우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,200원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>립밤/틴트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 워터 젤 틴트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,300원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 트리플 무스 틴트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스위트 튜브 립밤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에센셜 립밤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 글라스 듀 틴트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>립 버블 스크럽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>립 슬리핑 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 샤인 틴트밤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼스널 촉촉 색조 set (4종 택1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,100원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,600원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>립스틱/립라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 오토 립 라이너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 에코 크레용 립루즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 에코 크레용 립 벨벳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키스 마이 에어리 매트 립스틱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크리미 립스틱 11 드라이 로즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이플라워 쉬어블러 틴트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>립 스튜디오 인텐스 새틴 립스틱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키스 마이 미니 립스틱 키트 매트 에디션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>립글로스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글레이즈 샤인 립 오일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허니 멜팅 립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼스널 꿀광 색조 set (4종 택1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 네일 매트 탑코트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네일 리무버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 네일 베이스 코트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 네일 탑코트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 네일 컬러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 글리터 네일 컬러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 꽃물 네일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 네일 케어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 드라이플라워 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러 앤 네이처 클래식 네일 컬러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초강력 네일 리무버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마스크시트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그린더마 마일드 시카 카밍 케어 마스크팩 (피부진정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 더착한마음 마스크팩 히알루론산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,400원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리얼 네이처 하이드로 겔 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,950원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 굿스킨 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수딩 앤 모이스처 알로에베라 92% 수딩젤 마스크 시트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 콤부차 블랙티 트리트먼트 에센스 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 7일 화이트닝 마스크팩 (미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스네일 솔루션 스킨부스터 마스크팩 (미백·주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 장미 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 오이 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 로얄젤리 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 대나무 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 아보카도 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 올리브 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 티트리 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 오렌지 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리얼 네이처 토마토 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불가리안 로즈 에센셜 마스크팩 20매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12993</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 캐모마일 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 쉐어버터 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 알로에 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[10+10] 리얼 네이처 녹차 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리얼 네이처 아사이베리 마스크팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텐스멀티 콜라겐뮤신 데일리 마스크팩(30매/주름개선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 데일리 마스크팩(30매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그린더마 마일드 시카 데일리 마스크팩(30매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 7일 화이트닝 마스크팩(10매입/미백)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분마스크시트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블랙헤드 클리어 코팩 (1매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>워시오프/필오프팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대나무 숯 머드 팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 필 오프 팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 리얼 카렌듈라 워시 오프 팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 그린 하트리프 밸런싱 머드팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 핑크 세이지 마일드필 머드팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 화이트 로투스 딥 클린 머드팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 블랙차콜 딥 포어 머드팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬리핑팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내추럴 메이드 블루 캐모마일 카밍 딥 슬리핑 팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클렌징폼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레시 허브 폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=9990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수딩 앤 모이스처 알로에베라 폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리얼네이처 폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13694</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비타페어C 빅폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주 탄산 폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주 탄산 머드 폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜라겐 드림 비타민 C 캡슐 폼클렌징</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13292</x:t>
+  </x:si>
+  <x:si>
     <x:t>7,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굿스킨 앰플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,700원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[특가] 인텐스 멀티 앰플밤 히알론 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[특가] 인텐스 멀티 앰플밤 프로폴리스 (주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[특가] 인텐스 멀티 앰플밤 시카 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수딩 앤 모이스처 알로에베라 74 쿨링 아이 세럼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슈퍼 아쿠아 맥스 수분 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,130원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜라겐 드림 70 에센스 (주름개선 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그린더마 티트리 시카 스팟 파우더(여드름성 피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텐스 멀티 앰플밤 콜라겐 (주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,200원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텐스 멀티 앰플밤 비타 C (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그린더마 마일드 시카 세럼 (피부진정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 잡티세럼 (미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13469</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,430원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브올로지 카모마일 퓨어 오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브올로지 로즈힙 라이트 오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브올로지 타마누 인텐시브 오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13910</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브올로지 티트리 리파이닝 오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브올로지 페퍼민트 릴랙싱 오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셀파워 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=9806</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히아테놀 하이드라 캡슐 에센스 (미백기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[GIFT: 마스크팩3매] 콤부차 화이트티 아이크림(미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[GIFT: 마스크팩3매] 비타페어C 비타민C 25 앰플 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히아테놀 하이드라 앰플 기획세트 (미백기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히아테놀 하이드라 앰플 (미백기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[GIFT: 블랙티 트라이얼 키트] 콤부차 블랙티 트리트먼트 앰플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[2종 택1 GIFT] 콤부차 화이트티 트리트먼트 에센스(피부결개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진생 로얄 실크 에멀전 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[2종 택1 GIFT] 콤부차 블랙티 트리트먼트 에센스 (탄력개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 잡티세럼 90ml 대용량 (미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28,700원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진생 로얄 실크 링클 앰플밤 (주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스네일 솔루션 앰플 (주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13916</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진생 로얄 실크 에센스 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수딩 앤 모이스처 알로에베라 92% 수딩젤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12938</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,400원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어린녹차 순한 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카렌듈라 릴리프 크림 (민감성 피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13488</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굿스킨 앰플 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>링클비타에이 스팟 프로 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로터스 프레쉬 크림 (민감성 피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13733</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐모마일 카밍 크림 (민감성 피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슈퍼 아쿠아 맥스 컴비네이션 수분크림 [복합성용]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 라벤더 풋 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슈퍼 아쿠아 맥스 프레시 수분크림 [지성용]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13545</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슈퍼 아쿠아 맥스 모이스처 수분크림 [건성용]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜라겐 드림 70 크림 (주름개선 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그린더마 티트리 시카 수딩크림 (여드름성 피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜라겐 드림 50 올인원 래디언스 톤 업 크림 SPF35 PA++ (미백·주름개선·자외선차단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,450원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 레드클로버 퍼밍 크림 (주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 브로콜리 스프라우트 퓨리파잉 크림(수분공급)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 아르테미시아 엑스트라 수딩 크림 (진정보습)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 어니언 리커버리 크림 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 말로우 센시티브 크림(민감성 피부 사용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13903</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 오레가노 블레미쉬 크림 (여드름성피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13905</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 몰로키아 딥 모이스처 크림(보습)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉐어버터 스팀 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(대용량) 슈퍼 아쿠아 맥스 컴비네이션 수분 크림 [복합성용]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 잡티 크림 (미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셀파워 수분크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셀파워 나이트 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셀파워 데이 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=9829</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히아테놀 하이드라 크림 (미백기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 젤크림 (미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,920원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그린더마 마일드 시카 크림 (민감성 피부용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 7일 화이트닝 슬리핑 크림 (미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22,400원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[GIFT: 블랙티 트라이얼 키트] 콤부차 블랙티 트리트먼트 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스네일 솔루션 크림 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진생 로얄 실크 워터리 크림 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜라겐 드림 50 올 페이스 아이크림 (주름개선 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셀파워 아이크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[GIFT: 마스크팩3매] 콤부차 블랙티 아이크림(미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진생 로얄 실크 아이크림 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바디클렌저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매끈매끈 때샤워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼퓸 드 네이처 바디 워시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순한 베이비 아토 워시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13942</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,600원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바디로션/크림/미스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모멘트 퍼퓸 미스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,400원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼퓸 드 네이처 바디 로션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 화이트진저 릴랙싱 바디 크림(릴렉싱)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순한 베이비 아토 로션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13943</x:t>
-  </x:si>
-  <x:si>
-    <x:t>향수/방향/디퓨저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼퓸 드 네이처 오드 퍼퓸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸드/풋케어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 핸드 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 풋 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 리얼 스퀴즈 알로에베라 필링 풋 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋 앤 네이처 코코넛 모이스처 풋 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손이깨끗해 핸드솝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13874</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 핸드 앤 네이처 핸드크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매끈매끈 피톤치드 풋 샤워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 핸드 앤 네이처 릴리 핸드크림 (대용량)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 핸드 앤 네이처 복숭아 핸드크림(대용량)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모멘트 퍼퓸 미니 핸드크림 기획세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데오드란트/제모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뷰티 툴 바디 면도기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레시 데오드란트 스틱-플로랄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,160원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레시 데오드란트 스틱 - 코튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바디기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배쓰 앤 네이처 캐모마일 페미닌 워시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,320원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샴푸/린스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 사이프러스 타임 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 로즈마리 민트 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 라벤더 패출리 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 만다린 진저 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 컨디셔너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 샴푸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙빈 탈모증상 개선 트리트먼트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙빈 탈모증상 개선 샴푸 300ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙빈 탈모증상 개선 샴푸 520ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 샴푸 (대용량)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙빈 탈모증상 개선 기획세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어팩/에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 수분 헤어 미스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 컬링 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 헤어 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 헤어팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 스테이 볼륨 컬링 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙빈 탈모증상 개선 두피 토닉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 헤어 노워시 트리트먼트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 헤어팩 (대용량)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 헤어팩 더블세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙빈 탈모증상 개선 샴푸 1000ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 파워 홀딩 헤어 젤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,830원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아프리카 버드 옴므 울트라 하드 왁스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 퍼펙트 스타일링 헤어 스프레이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,530원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 스피디 홀딩 워터 세팅 스프레이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,400원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어컬러링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (멋내기용) 10N 골드 브라운</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용/5분스피디) 6S 자연 갈색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,600원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 5N 자연 갈색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 3N 흑갈색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블러셔/하이라이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 블러셔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 컨투어링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 리퀴드 블러셔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 그라데이션 블러셔 샤이베이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13641</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이크드 블러셔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실루엣 쉐딩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글로이 하이라이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이섀도우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 블라썸 아이 섀도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 블라썸 페리 트윙클 글리터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 블라썸 멀티 블렌딩 팔레트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13868</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데일리 베이직 팔레트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 블라썸 뉴 무드 아이 팔레트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13798</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글리터 홀릭 아이 팔레트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로 터치 컬러 마스터 섀도 팔레트 스프링 에디션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마스카라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 와일드 마스카라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,280원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 수퍼슬림 마스카라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13828</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 무드 웨어 컬픽스 마스카라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 수퍼프루프 마스카라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 하드 아이라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,900원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 극세사 슬림핏 아이라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 컬러 무드 오토 펜슬 라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 스키니 오토 아이라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 리퀴드 라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 스키니 펜 라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13639</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 팔레트 젤 라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 하이퍼 라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,930원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 스머지 프루프 아이라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 럭키 도트 펜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이브로우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 우드 아이브로우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 오토 아이브로우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 극세사 브로우 펜슬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13717</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 오토 하드 아이 브로우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 스키니 아이브로우 코팅 카라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보테니컬 스타일러 케익 아이브로우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,200원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>립밤/틴트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 워터 젤 틴트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,300원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 트리플 무스 틴트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스위트 튜브 립밤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에센셜 립밤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 글라스 듀 틴트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>립 버블 스크럽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>립 슬리핑 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 샤인 틴트밤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼스널 촉촉 색조 set (4종 택1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,100원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37,600원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>립스틱/립라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 오토 립 라이너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 에코 크레용 립루즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13737</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 에코 크레용 립 벨벳</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키스 마이 에어리 매트 립스틱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크리미 립스틱 11 드라이 로즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이플라워 쉬어블러 틴트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>립 스튜디오 인텐스 새틴 립스틱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키스 마이 미니 립스틱 키트 매트 에디션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>립글로스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글레이즈 샤인 립 오일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허니 멜팅 립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼스널 꿀광 색조 set (4종 택1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 네일 매트 탑코트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네일 리무버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 네일 베이스 코트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 네일 탑코트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 네일 컬러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13648</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 글리터 네일 컬러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 꽃물 네일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 네일 케어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 드라이플라워 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러 앤 네이처 클래식 네일 컬러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초강력 네일 리무버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마스크시트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그린더마 마일드 시카 카밍 케어 마스크팩 (피부진정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 더착한마음 마스크팩 히알루론산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,400원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리얼 네이처 하이드로 겔 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13697</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,950원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 굿스킨 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수딩 앤 모이스처 알로에베라 92% 수딩젤 마스크 시트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 콤부차 블랙티 트리트먼트 에센스 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=14027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 7일 화이트닝 마스크팩 (미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스네일 솔루션 스킨부스터 마스크팩 (미백·주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 장미 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 오이 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 로얄젤리 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 대나무 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 아보카도 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13699</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 올리브 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 티트리 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 오렌지 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리얼 네이처 토마토 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불가리안 로즈 에센셜 마스크팩 20매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 캐모마일 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 쉐어버터 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 알로에 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[10+10] 리얼 네이처 녹차 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13698</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리얼 네이처 아사이베리 마스크팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텐스멀티 콜라겐뮤신 데일리 마스크팩(30매/주름개선)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13797</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 데일리 마스크팩(30매)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그린더마 마일드 시카 데일리 마스크팩(30매)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 7일 화이트닝 마스크팩(10매입/미백)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분마스크시트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블랙헤드 클리어 코팩 (1매)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>워시오프/필오프팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대나무 숯 머드 팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 필 오프 팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 리얼 카렌듈라 워시 오프 팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 그린 하트리프 밸런싱 머드팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 핑크 세이지 마일드필 머드팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 화이트 로투스 딥 클린 머드팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 블랙차콜 딥 포어 머드팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13796</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬리핑팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내추럴 메이드 블루 캐모마일 카밍 딥 슬리핑 팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클렌징폼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레시 허브 폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=9990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수딩 앤 모이스처 알로에베라 폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리얼네이처 폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13694</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비타페어C 빅폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13576</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주 탄산 폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주 탄산 머드 폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜라겐 드림 비타민 C 캡슐 폼클렌징</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13292</x:t>
   </x:si>
   <x:si>
     <x:t>셀파워 에센셜 폼클렌징</x:t>
@@ -3837,7 +3837,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -4636,13 +4636,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
@@ -4650,19 +4650,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>12</x:v>
@@ -4673,10 +4673,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>150</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
         <x:v>55</x:v>
@@ -4696,10 +4696,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
         <x:v>55</x:v>
@@ -4719,22 +4719,22 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
@@ -4742,22 +4742,22 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
+      <x:c r="D47" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
@@ -4765,16 +4765,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
         <x:v>52</x:v>
@@ -4788,19 +4788,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>12</x:v>
@@ -4811,19 +4811,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>12</x:v>
@@ -4834,19 +4834,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>12</x:v>
@@ -4857,19 +4857,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>12</x:v>
@@ -4880,13 +4880,13 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>64</x:v>
@@ -4903,16 +4903,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
         <x:v>52</x:v>
@@ -4926,10 +4926,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
         <x:v>127</x:v>
@@ -4938,7 +4938,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
         <x:v>12</x:v>
@@ -4949,10 +4949,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
         <x:v>127</x:v>
@@ -4961,7 +4961,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>12</x:v>
@@ -4972,10 +4972,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
         <x:v>127</x:v>
@@ -4984,7 +4984,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>12</x:v>
@@ -4995,10 +4995,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>127</x:v>
@@ -5007,7 +5007,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>12</x:v>
@@ -5018,10 +5018,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
         <x:v>127</x:v>
@@ -5030,7 +5030,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
         <x:v>12</x:v>
@@ -5041,19 +5041,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>12</x:v>
@@ -5064,10 +5064,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>82</x:v>
@@ -5087,10 +5087,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
         <x:v>56</x:v>
@@ -5110,19 +5110,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>12</x:v>
@@ -5133,16 +5133,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
         <x:v>52</x:v>
@@ -5156,16 +5156,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="C65" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="D65" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="E65" s="0" t="s">
-        <x:v>207</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
         <x:v>52</x:v>
@@ -5179,19 +5179,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>12</x:v>
@@ -5202,16 +5202,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
         <x:v>52</x:v>
@@ -5225,10 +5225,10 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
         <x:v>95</x:v>
@@ -5248,19 +5248,19 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>12</x:v>
@@ -5271,16 +5271,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
         <x:v>52</x:v>
@@ -5294,16 +5294,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="C71" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="D71" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="E71" s="0" t="s">
-        <x:v>226</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
         <x:v>52</x:v>
@@ -5317,16 +5317,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
         <x:v>77</x:v>
@@ -5340,16 +5340,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
         <x:v>52</x:v>
@@ -5360,19 +5360,19 @@
     </x:row>
     <x:row r="74" spans="1:7">
       <x:c r="A74" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
         <x:v>11</x:v>
@@ -5383,13 +5383,13 @@
     </x:row>
     <x:row r="75" spans="1:7">
       <x:c r="A75" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>28</x:v>
@@ -5406,19 +5406,19 @@
     </x:row>
     <x:row r="76" spans="1:7">
       <x:c r="A76" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
         <x:v>107</x:v>
@@ -5429,22 +5429,22 @@
     </x:row>
     <x:row r="77" spans="1:7">
       <x:c r="A77" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
         <x:v>12</x:v>
@@ -5452,22 +5452,22 @@
     </x:row>
     <x:row r="78" spans="1:7">
       <x:c r="A78" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
         <x:v>12</x:v>
@@ -5475,19 +5475,19 @@
     </x:row>
     <x:row r="79" spans="1:7">
       <x:c r="A79" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
         <x:v>69</x:v>
@@ -5498,19 +5498,19 @@
     </x:row>
     <x:row r="80" spans="1:7">
       <x:c r="A80" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
         <x:v>258</x:v>
@@ -5521,7 +5521,7 @@
     </x:row>
     <x:row r="81" spans="1:7">
       <x:c r="A81" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>259</x:v>
@@ -5544,7 +5544,7 @@
     </x:row>
     <x:row r="82" spans="1:7">
       <x:c r="A82" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>262</x:v>
@@ -5567,7 +5567,7 @@
     </x:row>
     <x:row r="83" spans="1:7">
       <x:c r="A83" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>264</x:v>
@@ -5590,7 +5590,7 @@
     </x:row>
     <x:row r="84" spans="1:7">
       <x:c r="A84" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>266</x:v>
@@ -5613,7 +5613,7 @@
     </x:row>
     <x:row r="85" spans="1:7">
       <x:c r="A85" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>268</x:v>
@@ -5625,10 +5625,10 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>12</x:v>
@@ -5636,7 +5636,7 @@
     </x:row>
     <x:row r="86" spans="1:7">
       <x:c r="A86" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>270</x:v>
@@ -5659,7 +5659,7 @@
     </x:row>
     <x:row r="87" spans="1:7">
       <x:c r="A87" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>272</x:v>
@@ -5671,7 +5671,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
         <x:v>77</x:v>
@@ -5682,7 +5682,7 @@
     </x:row>
     <x:row r="88" spans="1:7">
       <x:c r="A88" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>275</x:v>
@@ -5694,7 +5694,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
         <x:v>277</x:v>
@@ -5705,7 +5705,7 @@
     </x:row>
     <x:row r="89" spans="1:7">
       <x:c r="A89" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>278</x:v>
@@ -5717,7 +5717,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
         <x:v>277</x:v>
@@ -5728,7 +5728,7 @@
     </x:row>
     <x:row r="90" spans="1:7">
       <x:c r="A90" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>280</x:v>
@@ -5740,7 +5740,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
         <x:v>277</x:v>
@@ -5751,7 +5751,7 @@
     </x:row>
     <x:row r="91" spans="1:7">
       <x:c r="A91" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>282</x:v>
@@ -5763,7 +5763,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
         <x:v>277</x:v>
@@ -5774,7 +5774,7 @@
     </x:row>
     <x:row r="92" spans="1:7">
       <x:c r="A92" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>284</x:v>
@@ -5786,7 +5786,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
         <x:v>277</x:v>
@@ -5797,7 +5797,7 @@
     </x:row>
     <x:row r="93" spans="1:7">
       <x:c r="A93" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>286</x:v>
@@ -5809,7 +5809,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
         <x:v>277</x:v>
@@ -5820,7 +5820,7 @@
     </x:row>
     <x:row r="94" spans="1:7">
       <x:c r="A94" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>288</x:v>
@@ -5832,7 +5832,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
         <x:v>277</x:v>
@@ -5843,7 +5843,7 @@
     </x:row>
     <x:row r="95" spans="1:7">
       <x:c r="A95" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>290</x:v>
@@ -5866,7 +5866,7 @@
     </x:row>
     <x:row r="96" spans="1:7">
       <x:c r="A96" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>294</x:v>
@@ -5889,7 +5889,7 @@
     </x:row>
     <x:row r="97" spans="1:7">
       <x:c r="A97" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>296</x:v>
@@ -5898,10 +5898,10 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
         <x:v>52</x:v>
@@ -5912,7 +5912,7 @@
     </x:row>
     <x:row r="98" spans="1:7">
       <x:c r="A98" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>298</x:v>
@@ -5921,10 +5921,10 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
         <x:v>77</x:v>
@@ -5935,7 +5935,7 @@
     </x:row>
     <x:row r="99" spans="1:7">
       <x:c r="A99" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>300</x:v>
@@ -5944,7 +5944,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>302</x:v>
@@ -5958,7 +5958,7 @@
     </x:row>
     <x:row r="100" spans="1:7">
       <x:c r="A100" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>304</x:v>
@@ -5967,7 +5967,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>302</x:v>
@@ -5981,7 +5981,7 @@
     </x:row>
     <x:row r="101" spans="1:7">
       <x:c r="A101" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>306</x:v>
@@ -6004,7 +6004,7 @@
     </x:row>
     <x:row r="102" spans="1:7">
       <x:c r="A102" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>308</x:v>
@@ -6016,7 +6016,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
         <x:v>311</x:v>
@@ -6027,7 +6027,7 @@
     </x:row>
     <x:row r="103" spans="1:7">
       <x:c r="A103" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>312</x:v>
@@ -6036,7 +6036,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
         <x:v>293</x:v>
@@ -6050,7 +6050,7 @@
     </x:row>
     <x:row r="104" spans="1:7">
       <x:c r="A104" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>315</x:v>
@@ -6073,7 +6073,7 @@
     </x:row>
     <x:row r="105" spans="1:7">
       <x:c r="A105" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>319</x:v>
@@ -6096,7 +6096,7 @@
     </x:row>
     <x:row r="106" spans="1:7">
       <x:c r="A106" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>323</x:v>
@@ -6119,7 +6119,7 @@
     </x:row>
     <x:row r="107" spans="1:7">
       <x:c r="A107" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>326</x:v>
@@ -6128,7 +6128,7 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>328</x:v>
@@ -6154,7 +6154,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F108" s="0" t="s">
         <x:v>332</x:v>
@@ -6174,13 +6174,13 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
         <x:v>12</x:v>
@@ -6220,7 +6220,7 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>328</x:v>
@@ -6309,10 +6309,10 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>311</x:v>
@@ -6335,7 +6335,7 @@
         <x:v>989</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>311</x:v>
@@ -6355,10 +6355,10 @@
         <x:v>991</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>11</x:v>
@@ -6381,7 +6381,7 @@
         <x:v>995</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>311</x:v>
@@ -6496,7 +6496,7 @@
         <x:v>1007</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>311</x:v>
@@ -6542,7 +6542,7 @@
         <x:v>989</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>311</x:v>
@@ -6565,7 +6565,7 @@
         <x:v>989</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>311</x:v>
@@ -6588,7 +6588,7 @@
         <x:v>989</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>311</x:v>
@@ -6611,7 +6611,7 @@
         <x:v>989</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>311</x:v>
@@ -6634,7 +6634,7 @@
         <x:v>1020</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>311</x:v>
@@ -6654,10 +6654,10 @@
         <x:v>1022</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>311</x:v>
@@ -6677,10 +6677,10 @@
         <x:v>1024</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>311</x:v>
@@ -6703,7 +6703,7 @@
         <x:v>1027</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>311</x:v>
@@ -6723,10 +6723,10 @@
         <x:v>1029</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -6746,10 +6746,10 @@
         <x:v>1031</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
@@ -6792,10 +6792,10 @@
         <x:v>1037</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -6815,10 +6815,10 @@
         <x:v>1039</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>11</x:v>
@@ -6861,10 +6861,10 @@
         <x:v>1043</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>11</x:v>
@@ -6907,10 +6907,10 @@
         <x:v>1047</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>11</x:v>
@@ -6930,10 +6930,10 @@
         <x:v>1049</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>11</x:v>
@@ -6979,7 +6979,7 @@
         <x:v>1055</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>311</x:v>
@@ -7002,7 +7002,7 @@
         <x:v>1055</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>311</x:v>
@@ -7045,10 +7045,10 @@
         <x:v>1061</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>11</x:v>
@@ -7068,7 +7068,7 @@
         <x:v>1063</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>15</x:v>
@@ -7091,10 +7091,10 @@
         <x:v>1065</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
         <x:v>478</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>479</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>311</x:v>
@@ -7114,10 +7114,10 @@
         <x:v>1068</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
         <x:v>11</x:v>
@@ -7137,10 +7137,10 @@
         <x:v>1070</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>11</x:v>
@@ -7160,10 +7160,10 @@
         <x:v>1072</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>11</x:v>
@@ -7186,7 +7186,7 @@
         <x:v>1007</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
         <x:v>311</x:v>
@@ -7206,10 +7206,10 @@
         <x:v>1077</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
         <x:v>11</x:v>
@@ -7229,10 +7229,10 @@
         <x:v>1079</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
         <x:v>11</x:v>
@@ -7278,7 +7278,7 @@
         <x:v>1055</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
         <x:v>311</x:v>
@@ -7301,7 +7301,7 @@
         <x:v>1055</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
         <x:v>311</x:v>
@@ -7321,10 +7321,10 @@
         <x:v>1091</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
         <x:v>311</x:v>
@@ -7344,10 +7344,10 @@
         <x:v>1093</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
         <x:v>311</x:v>
@@ -7367,10 +7367,10 @@
         <x:v>1095</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>311</x:v>
@@ -7413,10 +7413,10 @@
         <x:v>1099</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>11</x:v>
@@ -7502,7 +7502,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>344</x:v>
@@ -7571,7 +7571,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>344</x:v>
@@ -7640,10 +7640,10 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>52</x:v>
@@ -7654,13 +7654,13 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>365</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>366</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>367</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>103</x:v>
@@ -7677,19 +7677,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>368</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>369</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>370</x:v>
-      </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>11</x:v>
@@ -7700,19 +7700,19 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>371</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>372</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>373</x:v>
-      </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>11</x:v>
@@ -7723,19 +7723,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>374</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>375</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>52</x:v>
@@ -7746,19 +7746,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>377</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>378</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>11</x:v>
@@ -7769,13 +7769,13 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>380</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>381</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>18</x:v>
@@ -7792,13 +7792,13 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>382</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>383</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>18</x:v>
@@ -7815,13 +7815,13 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>384</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>385</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>63</x:v>
@@ -7838,13 +7838,13 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>386</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>387</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>63</x:v>
@@ -7861,22 +7861,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="D19" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>389</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>390</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -7884,19 +7884,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>392</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>393</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>394</x:v>
-      </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>11</x:v>
@@ -7907,19 +7907,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>395</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="D21" s="0" t="s">
         <x:v>396</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>397</x:v>
-      </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -7930,19 +7930,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>398</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>311</x:v>
@@ -7953,16 +7953,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="D23" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>33</x:v>
@@ -7976,13 +7976,13 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>405</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>406</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>33</x:v>
@@ -7999,13 +7999,13 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>407</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>408</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>33</x:v>
@@ -8022,13 +8022,13 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
         <x:v>409</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>410</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>33</x:v>
@@ -8045,13 +8045,13 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
         <x:v>411</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>412</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>33</x:v>
@@ -8068,22 +8068,22 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
         <x:v>413</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>12</x:v>
@@ -8091,13 +8091,13 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
         <x:v>416</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>417</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>126</x:v>
@@ -8114,22 +8114,22 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
         <x:v>418</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>419</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
         <x:v>420</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>421</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>12</x:v>
@@ -8137,16 +8137,16 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
         <x:v>422</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="D31" s="0" t="s">
         <x:v>423</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>424</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>19</x:v>
@@ -8160,13 +8160,13 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
         <x:v>425</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>426</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>75</x:v>
@@ -8175,7 +8175,7 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>12</x:v>
@@ -8183,22 +8183,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
         <x:v>428</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="D33" s="0" t="s">
         <x:v>429</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
+      <x:c r="E33" s="0" t="s">
         <x:v>430</x:v>
       </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>12</x:v>
@@ -8206,22 +8206,22 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
         <x:v>432</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
+      <x:c r="D34" s="0" t="s">
         <x:v>433</x:v>
       </x:c>
-      <x:c r="D34" s="0" t="s">
+      <x:c r="E34" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
         <x:v>434</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>435</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>12</x:v>
@@ -8229,13 +8229,13 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
         <x:v>436</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
+      <x:c r="C35" s="0" t="s">
         <x:v>437</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>438</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>41</x:v>
@@ -8244,7 +8244,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>12</x:v>
@@ -8252,19 +8252,19 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
         <x:v>439</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>440</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>314</x:v>
@@ -8275,13 +8275,13 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>442</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>443</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>63</x:v>
@@ -8290,7 +8290,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>12</x:v>
@@ -8298,13 +8298,13 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
         <x:v>444</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>445</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>63</x:v>
@@ -8321,13 +8321,13 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
         <x:v>446</x:v>
-      </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>447</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>63</x:v>
@@ -8336,7 +8336,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>12</x:v>
@@ -8344,22 +8344,22 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
         <x:v>448</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>449</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>12</x:v>
@@ -8367,13 +8367,13 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
         <x:v>450</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>451</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>51</x:v>
@@ -8382,7 +8382,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>12</x:v>
@@ -8390,16 +8390,16 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
         <x:v>452</x:v>
       </x:c>
-      <x:c r="C42" s="0" t="s">
+      <x:c r="D42" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>454</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>137</x:v>
@@ -8413,22 +8413,22 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
         <x:v>455</x:v>
       </x:c>
-      <x:c r="C43" s="0" t="s">
+      <x:c r="D43" s="0" t="s">
         <x:v>456</x:v>
       </x:c>
-      <x:c r="D43" s="0" t="s">
+      <x:c r="E43" s="0" t="s">
         <x:v>457</x:v>
       </x:c>
-      <x:c r="E43" s="0" t="s">
+      <x:c r="F43" s="0" t="s">
         <x:v>458</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>459</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>12</x:v>
@@ -8436,19 +8436,19 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
         <x:v>460</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>461</x:v>
-      </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
         <x:v>11</x:v>
@@ -8459,16 +8459,16 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>462</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
+      <x:c r="C45" s="0" t="s">
         <x:v>463</x:v>
       </x:c>
-      <x:c r="C45" s="0" t="s">
+      <x:c r="D45" s="0" t="s">
         <x:v>464</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>465</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>28</x:v>
@@ -8482,19 +8482,19 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
         <x:v>466</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="s">
+      <x:c r="D46" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
         <x:v>467</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>468</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
         <x:v>77</x:v>
@@ -8505,16 +8505,16 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
         <x:v>469</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
+      <x:c r="D47" s="0" t="s">
         <x:v>470</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>471</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>33</x:v>
@@ -8528,16 +8528,16 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
         <x:v>472</x:v>
       </x:c>
-      <x:c r="C48" s="0" t="s">
+      <x:c r="D48" s="0" t="s">
         <x:v>473</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>474</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>29</x:v>
@@ -8551,19 +8551,19 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
+      <x:c r="C49" s="0" t="s">
         <x:v>476</x:v>
       </x:c>
-      <x:c r="C49" s="0" t="s">
+      <x:c r="D49" s="0" t="s">
         <x:v>477</x:v>
       </x:c>
-      <x:c r="D49" s="0" t="s">
+      <x:c r="E49" s="0" t="s">
         <x:v>478</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>479</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>311</x:v>
@@ -8574,19 +8574,19 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
         <x:v>480</x:v>
       </x:c>
-      <x:c r="C50" s="0" t="s">
+      <x:c r="D50" s="0" t="s">
         <x:v>481</x:v>
       </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>482</x:v>
-      </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
         <x:v>311</x:v>
@@ -8597,42 +8597,42 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
         <x:v>483</x:v>
       </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>484</x:v>
-      </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>311</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
         <x:v>485</x:v>
       </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>486</x:v>
-      </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
         <x:v>311</x:v>
@@ -8686,13 +8686,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>487</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>488</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>489</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>15</x:v>
@@ -8709,13 +8709,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>490</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>491</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>15</x:v>
@@ -8732,16 +8732,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>492</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>493</x:v>
-      </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>29</x:v>
@@ -8755,19 +8755,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>494</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>495</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>77</x:v>
@@ -8778,13 +8778,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>497</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>498</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>33</x:v>
@@ -8801,22 +8801,22 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>499</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>500</x:v>
-      </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>12</x:v>
@@ -8824,22 +8824,22 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>501</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>502</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
@@ -8847,22 +8847,22 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>504</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>505</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>506</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>12</x:v>
@@ -8870,16 +8870,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>509</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>510</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>511</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>34</x:v>
@@ -8893,22 +8893,22 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>513</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>479</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>514</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>12</x:v>
@@ -8916,13 +8916,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>33</x:v>
@@ -8939,13 +8939,13 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>518</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>75</x:v>
@@ -8954,7 +8954,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -8962,13 +8962,13 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>519</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>317</x:v>
@@ -8985,22 +8985,22 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>521</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>522</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
         <x:v>523</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
+      <x:c r="F15" s="0" t="s">
         <x:v>524</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>525</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>12</x:v>
@@ -9008,16 +9008,16 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>526</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>527</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>528</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>529</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>38</x:v>
@@ -9031,22 +9031,22 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>530</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>531</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>12</x:v>
@@ -9054,22 +9054,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>533</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>534</x:v>
-      </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -9077,22 +9077,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>536</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>537</x:v>
-      </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -9100,19 +9100,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>539</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>540</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>541</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
+      <x:c r="E20" s="0" t="s">
         <x:v>542</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>543</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>350</x:v>
@@ -9123,16 +9123,16 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>544</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>545</x:v>
-      </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>28</x:v>
@@ -9146,22 +9146,22 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>546</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>547</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>12</x:v>
@@ -9169,16 +9169,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
         <x:v>549</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>33</x:v>
@@ -9192,16 +9192,16 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
         <x:v>551</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>552</x:v>
-      </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>33</x:v>
@@ -9215,16 +9215,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>553</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>554</x:v>
-      </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>55</x:v>
@@ -9238,22 +9238,22 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
         <x:v>555</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
         <x:v>556</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>479</x:v>
-      </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>12</x:v>
@@ -9261,7 +9261,7 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>557</x:v>
@@ -9270,7 +9270,7 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>55</x:v>
@@ -9284,22 +9284,22 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
         <x:v>560</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="D28" s="0" t="s">
         <x:v>561</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>559</x:v>
-      </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>12</x:v>
@@ -9307,7 +9307,7 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>562</x:v>
@@ -9316,13 +9316,13 @@
         <x:v>563</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>12</x:v>
@@ -9330,13 +9330,13 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
         <x:v>565</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>566</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>567</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>103</x:v>
@@ -9353,19 +9353,19 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
         <x:v>568</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>569</x:v>
-      </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>11</x:v>
@@ -9376,16 +9376,16 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
         <x:v>570</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>571</x:v>
-      </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>28</x:v>
@@ -9399,22 +9399,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
         <x:v>572</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>573</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>12</x:v>
@@ -9422,16 +9422,16 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
         <x:v>575</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>576</x:v>
-      </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>33</x:v>
@@ -9445,19 +9445,19 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
         <x:v>577</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>578</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>77</x:v>
@@ -9468,19 +9468,19 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
         <x:v>580</x:v>
       </x:c>
-      <x:c r="B36" s="0" t="s">
+      <x:c r="C36" s="0" t="s">
         <x:v>581</x:v>
       </x:c>
-      <x:c r="C36" s="0" t="s">
+      <x:c r="D36" s="0" t="s">
         <x:v>582</x:v>
       </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>583</x:v>
-      </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>11</x:v>
@@ -9491,22 +9491,22 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>584</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>585</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>12</x:v>
@@ -9514,13 +9514,13 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
         <x:v>586</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>587</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>15</x:v>
@@ -9537,19 +9537,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
         <x:v>588</x:v>
       </x:c>
-      <x:c r="C39" s="0" t="s">
+      <x:c r="D39" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
         <x:v>589</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>511</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>590</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>77</x:v>
@@ -9560,13 +9560,13 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
         <x:v>591</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>592</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>18</x:v>
@@ -9575,7 +9575,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>21</x:v>
@@ -9583,13 +9583,13 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
         <x:v>594</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>595</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>28</x:v>
@@ -9606,13 +9606,13 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
         <x:v>596</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>597</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>28</x:v>
@@ -9629,19 +9629,19 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
         <x:v>598</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>599</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
         <x:v>77</x:v>
@@ -9652,22 +9652,22 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
         <x:v>601</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="s">
+      <x:c r="D44" s="0" t="s">
         <x:v>602</x:v>
       </x:c>
-      <x:c r="D44" s="0" t="s">
+      <x:c r="E44" s="0" t="s">
         <x:v>603</x:v>
       </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>604</x:v>
-      </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>12</x:v>
@@ -9675,19 +9675,19 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>605</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
+      <x:c r="C45" s="0" t="s">
         <x:v>606</x:v>
       </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>607</x:v>
-      </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
         <x:v>11</x:v>
@@ -9698,22 +9698,22 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
         <x:v>608</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="s">
+      <x:c r="D46" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
         <x:v>609</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>479</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="s">
-        <x:v>610</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>12</x:v>
@@ -9721,22 +9721,22 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
         <x:v>611</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>612</x:v>
-      </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>12</x:v>
@@ -9744,16 +9744,16 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
         <x:v>613</x:v>
       </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>614</x:v>
-      </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>29</x:v>
@@ -9767,13 +9767,13 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
         <x:v>615</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>616</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>18</x:v>
@@ -9782,7 +9782,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>12</x:v>
@@ -9790,13 +9790,13 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
         <x:v>617</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
-        <x:v>618</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
         <x:v>18</x:v>
@@ -9805,7 +9805,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>21</x:v>
@@ -9813,13 +9813,13 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
         <x:v>619</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>620</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>28</x:v>
@@ -9828,7 +9828,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>12</x:v>
@@ -9836,22 +9836,22 @@
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
         <x:v>621</x:v>
       </x:c>
-      <x:c r="C52" s="0" t="s">
+      <x:c r="D52" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
         <x:v>622</x:v>
       </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s">
+      <x:c r="F52" s="0" t="s">
         <x:v>623</x:v>
-      </x:c>
-      <x:c r="F52" s="0" t="s">
-        <x:v>624</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>12</x:v>
@@ -9859,19 +9859,19 @@
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
         <x:v>625</x:v>
       </x:c>
-      <x:c r="B53" s="0" t="s">
+      <x:c r="C53" s="0" t="s">
         <x:v>626</x:v>
       </x:c>
-      <x:c r="C53" s="0" t="s">
+      <x:c r="D53" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
         <x:v>627</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>511</x:v>
-      </x:c>
-      <x:c r="E53" s="0" t="s">
-        <x:v>628</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
         <x:v>60</x:v>
@@ -9882,19 +9882,19 @@
     </x:row>
     <x:row r="54" spans="1:7">
       <x:c r="A54" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
         <x:v>629</x:v>
-      </x:c>
-      <x:c r="C54" s="0" t="s">
-        <x:v>630</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
         <x:v>47</x:v>
@@ -9905,19 +9905,19 @@
     </x:row>
     <x:row r="55" spans="1:7">
       <x:c r="A55" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
         <x:v>631</x:v>
       </x:c>
-      <x:c r="C55" s="0" t="s">
+      <x:c r="D55" s="0" t="s">
         <x:v>632</x:v>
       </x:c>
-      <x:c r="D55" s="0" t="s">
+      <x:c r="E55" s="0" t="s">
         <x:v>633</x:v>
-      </x:c>
-      <x:c r="E55" s="0" t="s">
-        <x:v>634</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
         <x:v>57</x:v>
@@ -9928,19 +9928,19 @@
     </x:row>
     <x:row r="56" spans="1:7">
       <x:c r="A56" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
         <x:v>635</x:v>
       </x:c>
-      <x:c r="B56" s="0" t="s">
+      <x:c r="C56" s="0" t="s">
         <x:v>636</x:v>
       </x:c>
-      <x:c r="C56" s="0" t="s">
+      <x:c r="D56" s="0" t="s">
         <x:v>637</x:v>
       </x:c>
-      <x:c r="D56" s="0" t="s">
+      <x:c r="E56" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E56" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
         <x:v>311</x:v>
@@ -9951,19 +9951,19 @@
     </x:row>
     <x:row r="57" spans="1:7">
       <x:c r="A57" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
         <x:v>640</x:v>
       </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>641</x:v>
-      </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
         <x:v>11</x:v>
@@ -9974,19 +9974,19 @@
     </x:row>
     <x:row r="58" spans="1:7">
       <x:c r="A58" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
         <x:v>642</x:v>
       </x:c>
-      <x:c r="C58" s="0" t="s">
-        <x:v>643</x:v>
-      </x:c>
       <x:c r="D58" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E58" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>311</x:v>
@@ -9997,19 +9997,19 @@
     </x:row>
     <x:row r="59" spans="1:7">
       <x:c r="A59" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
         <x:v>644</x:v>
       </x:c>
-      <x:c r="C59" s="0" t="s">
-        <x:v>645</x:v>
-      </x:c>
       <x:c r="D59" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="E59" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
         <x:v>311</x:v>
@@ -10020,22 +10020,22 @@
     </x:row>
     <x:row r="60" spans="1:7">
       <x:c r="A60" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
         <x:v>646</x:v>
       </x:c>
-      <x:c r="C60" s="0" t="s">
-        <x:v>647</x:v>
-      </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>12</x:v>
@@ -10043,22 +10043,22 @@
     </x:row>
     <x:row r="61" spans="1:7">
       <x:c r="A61" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
         <x:v>648</x:v>
       </x:c>
-      <x:c r="C61" s="0" t="s">
-        <x:v>649</x:v>
-      </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
         <x:v>12</x:v>
@@ -10066,22 +10066,22 @@
     </x:row>
     <x:row r="62" spans="1:7">
       <x:c r="A62" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
         <x:v>650</x:v>
       </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>651</x:v>
-      </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>12</x:v>
@@ -10089,19 +10089,19 @@
     </x:row>
     <x:row r="63" spans="1:7">
       <x:c r="A63" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
         <x:v>652</x:v>
       </x:c>
-      <x:c r="C63" s="0" t="s">
-        <x:v>653</x:v>
-      </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
         <x:v>77</x:v>
@@ -10112,19 +10112,19 @@
     </x:row>
     <x:row r="64" spans="1:7">
       <x:c r="A64" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
         <x:v>654</x:v>
       </x:c>
-      <x:c r="C64" s="0" t="s">
-        <x:v>655</x:v>
-      </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
         <x:v>11</x:v>
@@ -10135,22 +10135,22 @@
     </x:row>
     <x:row r="65" spans="1:7">
       <x:c r="A65" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
         <x:v>656</x:v>
       </x:c>
-      <x:c r="C65" s="0" t="s">
-        <x:v>657</x:v>
-      </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>12</x:v>
@@ -10158,13 +10158,13 @@
     </x:row>
     <x:row r="66" spans="1:7">
       <x:c r="A66" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
         <x:v>658</x:v>
-      </x:c>
-      <x:c r="C66" s="0" t="s">
-        <x:v>659</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>103</x:v>
@@ -10224,19 +10224,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>660</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>661</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>662</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>663</x:v>
-      </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
@@ -10247,19 +10247,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>664</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>665</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>666</x:v>
-      </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>11</x:v>
@@ -10270,19 +10270,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>667</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>668</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>669</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>11</x:v>
@@ -10293,19 +10293,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>670</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>671</x:v>
-      </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>11</x:v>
@@ -10316,19 +10316,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>672</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>673</x:v>
-      </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>11</x:v>
@@ -10339,13 +10339,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>674</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>675</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>103</x:v>
@@ -10362,19 +10362,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>676</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>677</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>11</x:v>
@@ -10385,19 +10385,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>678</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>679</x:v>
-      </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>11</x:v>
@@ -10408,19 +10408,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>680</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>681</x:v>
-      </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>11</x:v>
@@ -10431,19 +10431,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>682</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>683</x:v>
-      </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>11</x:v>
@@ -10454,19 +10454,19 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>684</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>685</x:v>
-      </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>11</x:v>
@@ -10477,19 +10477,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>686</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>687</x:v>
-      </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>11</x:v>
@@ -10500,19 +10500,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>688</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>689</x:v>
-      </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>11</x:v>
@@ -10523,19 +10523,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>690</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>691</x:v>
-      </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>11</x:v>
@@ -10546,19 +10546,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>692</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>693</x:v>
-      </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>11</x:v>
@@ -10569,19 +10569,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>694</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>695</x:v>
-      </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>11</x:v>
@@ -10592,19 +10592,19 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>696</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>697</x:v>
-      </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>11</x:v>
@@ -10615,22 +10615,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>698</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>699</x:v>
-      </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -10638,19 +10638,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
         <x:v>700</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>701</x:v>
-      </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>11</x:v>
@@ -10661,19 +10661,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>702</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>703</x:v>
-      </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>11</x:v>
@@ -10684,19 +10684,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>704</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>705</x:v>
-      </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
@@ -10707,19 +10707,19 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
         <x:v>706</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>707</x:v>
-      </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>11</x:v>
@@ -10730,19 +10730,19 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
         <x:v>708</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>709</x:v>
-      </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -10753,16 +10753,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>710</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>711</x:v>
-      </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>83</x:v>
@@ -10776,22 +10776,22 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
         <x:v>712</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
         <x:v>713</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>714</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>12</x:v>
@@ -10799,22 +10799,22 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>717</x:v>
-      </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>12</x:v>
@@ -10822,13 +10822,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
         <x:v>718</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>719</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>137</x:v>
@@ -10845,19 +10845,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
         <x:v>720</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>721</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="D29" s="0" t="s">
         <x:v>722</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
+      <x:c r="E29" s="0" t="s">
         <x:v>723</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>724</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>77</x:v>
@@ -10868,16 +10868,16 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
         <x:v>725</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>726</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>727</x:v>
-      </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>18</x:v>
@@ -10891,13 +10891,13 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
         <x:v>728</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>729</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>15</x:v>
@@ -10906,7 +10906,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>21</x:v>
@@ -10914,22 +10914,22 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
         <x:v>730</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="D32" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
         <x:v>731</x:v>
       </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>511</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
+      <x:c r="F32" s="0" t="s">
         <x:v>732</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>733</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>12</x:v>
@@ -10937,22 +10937,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
         <x:v>734</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>735</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>21</x:v>
@@ -10960,22 +10960,22 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
         <x:v>737</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>738</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>21</x:v>
@@ -10983,22 +10983,22 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
         <x:v>739</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>740</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>21</x:v>
@@ -11006,22 +11006,22 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
         <x:v>741</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>742</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>21</x:v>
@@ -11029,22 +11029,22 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
         <x:v>743</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
+      <x:c r="C37" s="0" t="s">
         <x:v>744</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>745</x:v>
-      </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>21</x:v>
@@ -11095,16 +11095,16 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>746</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>747</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>748</x:v>
-      </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>18</x:v>
@@ -11118,19 +11118,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>749</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>750</x:v>
-      </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>11</x:v>
@@ -11141,22 +11141,22 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>751</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>752</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>12</x:v>
@@ -11164,16 +11164,16 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>753</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>754</x:v>
-      </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>88</x:v>
@@ -11187,16 +11187,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>755</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>756</x:v>
-      </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>55</x:v>
@@ -11210,16 +11210,16 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>757</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>758</x:v>
-      </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>55</x:v>
@@ -11233,16 +11233,16 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>759</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>760</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>143</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>34</x:v>
@@ -11256,7 +11256,7 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>761</x:v>
@@ -11265,7 +11265,7 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>64</x:v>
@@ -11279,7 +11279,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>764</x:v>
@@ -11291,7 +11291,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>77</x:v>
@@ -11302,7 +11302,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>767</x:v>
@@ -11317,7 +11317,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>12</x:v>
@@ -11325,7 +11325,7 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>769</x:v>
@@ -11348,7 +11348,7 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>772</x:v>
@@ -11371,7 +11371,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>775</x:v>
@@ -11380,10 +11380,10 @@
         <x:v>776</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>52</x:v>
@@ -11394,7 +11394,7 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>777</x:v>
@@ -11403,10 +11403,10 @@
         <x:v>778</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>52</x:v>
@@ -11417,7 +11417,7 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>779</x:v>
@@ -11426,7 +11426,7 @@
         <x:v>780</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>318</x:v>
@@ -11449,7 +11449,7 @@
         <x:v>783</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>344</x:v>
@@ -11521,7 +11521,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>311</x:v>
@@ -11544,7 +11544,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -11610,10 +11610,10 @@
         <x:v>801</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -11682,10 +11682,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>21</x:v>
@@ -11705,10 +11705,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>21</x:v>
@@ -11728,10 +11728,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>21</x:v>
@@ -11751,10 +11751,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>21</x:v>
@@ -11820,7 +11820,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>77</x:v>
@@ -11843,7 +11843,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
         <x:v>77</x:v>
@@ -11909,7 +11909,7 @@
         <x:v>831</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>19</x:v>
@@ -11932,7 +11932,7 @@
         <x:v>833</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>75</x:v>
@@ -11955,10 +11955,10 @@
         <x:v>836</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>11</x:v>
@@ -11981,7 +11981,7 @@
         <x:v>839</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>311</x:v>
@@ -12024,7 +12024,7 @@
         <x:v>845</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>55</x:v>
@@ -12090,10 +12090,10 @@
         <x:v>848</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>52</x:v>
@@ -12113,16 +12113,16 @@
         <x:v>850</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -12142,7 +12142,7 @@
         <x:v>853</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>21</x:v>
@@ -12208,7 +12208,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>311</x:v>
@@ -12251,10 +12251,10 @@
         <x:v>866</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>867</x:v>
@@ -12274,7 +12274,7 @@
         <x:v>869</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>859</x:v>
@@ -12297,10 +12297,10 @@
         <x:v>871</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>332</x:v>
@@ -12320,10 +12320,10 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>874</x:v>
@@ -12349,7 +12349,7 @@
         <x:v>878</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -12461,10 +12461,10 @@
         <x:v>796</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -12570,7 +12570,7 @@
         <x:v>902</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>15</x:v>
@@ -12579,7 +12579,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -12596,10 +12596,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>12</x:v>
@@ -12616,10 +12616,10 @@
         <x:v>906</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>311</x:v>
@@ -12645,7 +12645,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>12</x:v>
@@ -12665,7 +12665,7 @@
         <x:v>912</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>350</x:v>
@@ -12688,7 +12688,7 @@
         <x:v>912</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>350</x:v>
@@ -12731,10 +12731,10 @@
         <x:v>919</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>258</x:v>
@@ -12780,7 +12780,7 @@
         <x:v>912</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>350</x:v>
@@ -12800,10 +12800,10 @@
         <x:v>925</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>30</x:v>
@@ -12823,10 +12823,10 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>30</x:v>
@@ -12846,10 +12846,10 @@
         <x:v>929</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>30</x:v>
@@ -12892,13 +12892,13 @@
         <x:v>933</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -13050,10 +13050,10 @@
         <x:v>946</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>52</x:v>
@@ -13076,7 +13076,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>311</x:v>
@@ -13119,7 +13119,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>939</x:v>
@@ -13142,7 +13142,7 @@
         <x:v>955</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>106</x:v>
@@ -13165,10 +13165,10 @@
         <x:v>958</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>52</x:v>
@@ -13188,10 +13188,10 @@
         <x:v>960</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>311</x:v>
@@ -13254,7 +13254,7 @@
         <x:v>963</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>964</x:v>
@@ -13277,7 +13277,7 @@
         <x:v>966</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>967</x:v>
@@ -13303,7 +13303,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>77</x:v>
@@ -13346,13 +13346,13 @@
         <x:v>973</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>12</x:v>
@@ -13369,7 +13369,7 @@
         <x:v>975</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>976</x:v>
@@ -13395,10 +13395,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
